--- a/natmiOut/YoungD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.740110608501039</v>
+        <v>2012.215366666667</v>
       </c>
       <c r="H2">
-        <v>8.740110608501039</v>
+        <v>6036.6461</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0282908737966</v>
+        <v>25.94532566666667</v>
       </c>
       <c r="N2">
-        <v>10.0282908737966</v>
+        <v>77.835977</v>
       </c>
       <c r="O2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="P2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="Q2">
-        <v>87.64837145120381</v>
+        <v>52207.58299963774</v>
       </c>
       <c r="R2">
-        <v>87.64837145120381</v>
+        <v>469868.2469967397</v>
       </c>
       <c r="S2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
       <c r="T2">
-        <v>0.3152760609466466</v>
+        <v>0.5401813355606462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.740110608501039</v>
+        <v>2012.215366666667</v>
       </c>
       <c r="H3">
-        <v>8.740110608501039</v>
+        <v>6036.6461</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4999893440293</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
-        <v>18.4999893440293</v>
+        <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="P3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
       <c r="Q3">
-        <v>161.6919531229067</v>
+        <v>37254.69993809258</v>
       </c>
       <c r="R3">
-        <v>161.6919531229067</v>
+        <v>335292.2994428332</v>
       </c>
       <c r="S3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210787</v>
       </c>
       <c r="T3">
-        <v>0.5816149373150696</v>
+        <v>0.3854668692210786</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.740110608501039</v>
+        <v>2012.215366666667</v>
       </c>
       <c r="H4">
-        <v>8.740110608501039</v>
+        <v>6036.6461</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.27968783304893</v>
+        <v>3.571174000000001</v>
       </c>
       <c r="N4">
-        <v>3.27968783304893</v>
+        <v>10.713522</v>
       </c>
       <c r="O4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="P4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
       <c r="Q4">
-        <v>28.66483442220274</v>
+        <v>7185.971199840467</v>
       </c>
       <c r="R4">
-        <v>28.66483442220274</v>
+        <v>64673.74079856421</v>
       </c>
       <c r="S4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827505</v>
       </c>
       <c r="T4">
-        <v>0.1031090017382839</v>
+        <v>0.07435179521827504</v>
       </c>
     </row>
   </sheetData>
